--- a/final/豆瓣电影Top250.xlsx
+++ b/final/豆瓣电影Top250.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E251"/>
+  <dimension ref="A1:H251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,10 +446,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>years</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>location</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>rating_num</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>comments</t>
         </is>
@@ -471,12 +486,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>犯罪 剧情</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>9.7</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>2972335</t>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2972691</t>
         </is>
       </c>
     </row>
@@ -496,12 +526,27 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>剧情 爱情 同性</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2196436</t>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2196695</t>
         </is>
       </c>
     </row>
@@ -521,12 +566,27 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>2215265</t>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2215481</t>
         </is>
       </c>
     </row>
@@ -546,12 +606,27 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>美国 墨西哥</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>剧情 爱情 灾难</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>2251538</t>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2251779</t>
         </is>
       </c>
     </row>
@@ -571,12 +646,27 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>法国 美国</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>剧情 动作 犯罪</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>2346518</t>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2346740</t>
         </is>
       </c>
     </row>
@@ -596,12 +686,27 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>剧情 动画 奇幻</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>2298498</t>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2298741</t>
         </is>
       </c>
     </row>
@@ -621,12 +726,27 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情 战争</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1357511</t>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>1357634</t>
         </is>
       </c>
     </row>
@@ -646,12 +766,27 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>美国 英国 加拿大</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>剧情 科幻 冒险</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>1908543</t>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>1908859</t>
         </is>
       </c>
     </row>
@@ -671,12 +806,27 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>剧情 科幻 悬疑 冒险</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>2118385</t>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>2118655</t>
         </is>
       </c>
     </row>
@@ -696,12 +846,27 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>剧情 历史 战争</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1146802</t>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1146913</t>
         </is>
       </c>
     </row>
@@ -721,12 +886,27 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>剧情 科幻</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>1768553</t>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>1768834</t>
         </is>
       </c>
     </row>
@@ -746,12 +926,27 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1426887</t>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1427033</t>
         </is>
       </c>
     </row>
@@ -771,12 +966,27 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>意大利</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>剧情 音乐</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1715846</t>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>1716027</t>
         </is>
       </c>
     </row>
@@ -796,12 +1006,27 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>印度</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情 歌舞</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>1901405</t>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1901641</t>
         </is>
       </c>
     </row>
@@ -821,12 +1046,27 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>法国 瑞士 德国</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>剧情 音乐</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>1345212</t>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1345371</t>
         </is>
       </c>
     </row>
@@ -846,12 +1086,27 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>科幻 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1349092</t>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1349249</t>
         </is>
       </c>
     </row>
@@ -871,12 +1126,27 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2001721</t>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>2002005</t>
         </is>
       </c>
     </row>
@@ -896,12 +1166,27 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1404223</t>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1404407</t>
         </is>
       </c>
     </row>
@@ -921,12 +1206,27 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>590709</t>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>590869</t>
         </is>
       </c>
     </row>
@@ -946,12 +1246,27 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1568964</t>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1569112</t>
         </is>
       </c>
     </row>
@@ -971,12 +1286,27 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>953501</t>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>953610</t>
         </is>
       </c>
     </row>
@@ -996,12 +1326,27 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>1972</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>994887</t>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>995006</t>
         </is>
       </c>
     </row>
@@ -1021,12 +1366,27 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>法国</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1152120</t>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1152328</t>
         </is>
       </c>
     </row>
@@ -1046,12 +1406,27 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>剧情 传记 家庭</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1554848</t>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>1555008</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1446,27 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>喜剧 动画 奇幻 音乐</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1738058</t>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>1738305</t>
         </is>
       </c>
     </row>
@@ -1096,12 +1486,27 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>英国 意大利 中国大陆 法国</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>剧情 传记 历史</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>914701</t>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>914839</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1526,27 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1295878</t>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>1296010</t>
         </is>
       </c>
     </row>
@@ -1146,12 +1566,27 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>1877615</t>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>1877803</t>
         </is>
       </c>
     </row>
@@ -1171,12 +1606,27 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>剧情 历史 家庭</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>871925</t>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>872021</t>
         </is>
       </c>
     </row>
@@ -1196,12 +1646,27 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>1232876</t>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>1233055</t>
         </is>
       </c>
     </row>
@@ -1221,12 +1686,27 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>1089814</t>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>1089943</t>
         </is>
       </c>
     </row>
@@ -1246,12 +1726,27 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>美国 新西兰</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>825213</t>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>825316</t>
         </is>
       </c>
     </row>
@@ -1271,12 +1766,27 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>2155317</t>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>2155532</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1806,27 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
+          <t>1939</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>剧情 历史 爱情 战争</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>710037</t>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>710124</t>
         </is>
       </c>
     </row>
@@ -1321,12 +1846,27 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>1361523</t>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>1361695</t>
         </is>
       </c>
     </row>
@@ -1346,12 +1886,27 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>705667</t>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>705760</t>
         </is>
       </c>
     </row>
@@ -1371,12 +1926,27 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
+          <t>1957</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>507991</t>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>508082</t>
         </is>
       </c>
     </row>
@@ -1396,12 +1966,27 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>1056073</t>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>1056227</t>
         </is>
       </c>
     </row>
@@ -1421,12 +2006,27 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 动作 西部</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>1743486</t>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>1743719</t>
         </is>
       </c>
     </row>
@@ -1446,12 +2046,27 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>黎巴嫩 美国 法国 塞浦路斯 卡塔尔 英国</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>1070632</t>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>1070746</t>
         </is>
       </c>
     </row>
@@ -1471,12 +2086,27 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>印度</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>剧情 传记 运动 家庭</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>1604130</t>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>1604279</t>
         </is>
       </c>
     </row>
@@ -1496,12 +2126,27 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>美国 加拿大</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>传记 犯罪 剧情</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>1062804</t>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>1063019</t>
         </is>
       </c>
     </row>
@@ -1521,12 +2166,27 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>902641</t>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>902770</t>
         </is>
       </c>
     </row>
@@ -1546,12 +2206,27 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>643800</t>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>643894</t>
         </is>
       </c>
     </row>
@@ -1571,12 +2246,27 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>德国 瑞士</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>剧情 冒险 家庭</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>647426</t>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>647561</t>
         </is>
       </c>
     </row>
@@ -1596,12 +2286,27 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>美国 中国台湾 英国 加拿大</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>剧情 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>1378479</t>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>1378626</t>
         </is>
       </c>
     </row>
@@ -1621,12 +2326,27 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>英国 法国 波兰 德国</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>剧情 传记 战争 音乐</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>662817</t>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>662915</t>
         </is>
       </c>
     </row>
@@ -1646,12 +2366,27 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>喜剧 爱情 奇幻 古装</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>1249332</t>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>1249483</t>
         </is>
       </c>
     </row>
@@ -1671,12 +2406,27 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>美国 新西兰</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>774439</t>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>774532</t>
         </is>
       </c>
     </row>
@@ -1696,12 +2446,27 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>914315</t>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>914443</t>
         </is>
       </c>
     </row>
@@ -1721,12 +2486,27 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>753559</t>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>753679</t>
         </is>
       </c>
     </row>
@@ -1746,12 +2526,27 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>美国 中国大陆</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 传记 音乐</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>1696981</t>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>1697192</t>
         </is>
       </c>
     </row>
@@ -1771,12 +2566,27 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
+          <t>1953</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>喜剧 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>970723</t>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>970801</t>
         </is>
       </c>
     </row>
@@ -1796,12 +2606,27 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
+          <t>1961</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>无信息</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>无信息</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>9.4</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>452490</t>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>452553</t>
         </is>
       </c>
     </row>
@@ -1821,12 +2646,27 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>意大利 法国</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>692027</t>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>692072</t>
         </is>
       </c>
     </row>
@@ -1846,12 +2686,27 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>新西兰 美国</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>剧情 动作 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>869924</t>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>870013</t>
         </is>
       </c>
     </row>
@@ -1871,12 +2726,27 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>动作 科幻</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>858730</t>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>858831</t>
         </is>
       </c>
     </row>
@@ -1896,12 +2766,27 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
+          <t>1974</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>569357</t>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>569424</t>
         </is>
       </c>
     </row>
@@ -1921,12 +2806,27 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>动画 冒险 歌舞</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>868021</t>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>868146</t>
         </is>
       </c>
     </row>
@@ -1946,12 +2846,27 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>602043</t>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>602091</t>
         </is>
       </c>
     </row>
@@ -1971,12 +2886,27 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>中国台湾 美国</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>639422</t>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>639503</t>
         </is>
       </c>
     </row>
@@ -1996,12 +2926,27 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>剧情 动作 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>868980</t>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>869092</t>
         </is>
       </c>
     </row>
@@ -2021,12 +2966,27 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>剧情 爱情 奇幻</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>1009180</t>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>1009341</t>
         </is>
       </c>
     </row>
@@ -2046,12 +3006,27 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>传记 剧情</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>787629</t>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>787715</t>
         </is>
       </c>
     </row>
@@ -2071,12 +3046,27 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>剧情 战争</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>582455</t>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>582523</t>
         </is>
       </c>
     </row>
@@ -2096,12 +3086,27 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>剧情 悬疑</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>578594</t>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>578641</t>
         </is>
       </c>
     </row>
@@ -2121,12 +3126,27 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>1149529</t>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>1149684</t>
         </is>
       </c>
     </row>
@@ -2146,12 +3166,27 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>609172</t>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>609259</t>
         </is>
       </c>
     </row>
@@ -2171,12 +3206,27 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>意大利 美国</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>剧情 战争 情色</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>1000041</t>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>1000171</t>
         </is>
       </c>
     </row>
@@ -2196,12 +3246,27 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
+          <t>1965</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>剧情 传记 爱情 歌舞</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>618955</t>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>619054</t>
         </is>
       </c>
     </row>
@@ -2221,12 +3286,27 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>西班牙</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>1306694</t>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>1306836</t>
         </is>
       </c>
     </row>
@@ -2246,12 +3326,27 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>动作 科幻 冒险</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>1454767</t>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>1454908</t>
         </is>
       </c>
     </row>
@@ -2271,12 +3366,27 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>857720</t>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>857833</t>
         </is>
       </c>
     </row>
@@ -2296,12 +3406,27 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
+          <t>1998</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>剧情 战争</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>663016</t>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>663103</t>
         </is>
       </c>
     </row>
@@ -2321,12 +3446,27 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
+          <t>1975</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>559020</t>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>559099</t>
         </is>
       </c>
     </row>
@@ -2346,12 +3486,27 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>伊朗</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>剧情 儿童 家庭</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>421668</t>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>421714</t>
         </is>
       </c>
     </row>
@@ -2371,12 +3526,27 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>915243</t>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>915370</t>
         </is>
       </c>
     </row>
@@ -2396,12 +3566,27 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>动作 喜剧 犯罪 奇幻</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>1173551</t>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>1173751</t>
         </is>
       </c>
     </row>
@@ -2421,12 +3606,27 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>美国 德国 英国</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 冒险</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>969548</t>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>969728</t>
         </is>
       </c>
     </row>
@@ -2446,12 +3646,27 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>1005920</t>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>1006037</t>
         </is>
       </c>
     </row>
@@ -2471,12 +3686,27 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>美国 加拿大</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>963208</t>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>963339</t>
         </is>
       </c>
     </row>
@@ -2496,12 +3726,27 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>882895</t>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>882998</t>
         </is>
       </c>
     </row>
@@ -2521,12 +3766,27 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>759399</t>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>759532</t>
         </is>
       </c>
     </row>
@@ -2546,12 +3806,27 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>735955</t>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>736081</t>
         </is>
       </c>
     </row>
@@ -2571,12 +3846,27 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>626576</t>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>626720</t>
         </is>
       </c>
     </row>
@@ -2596,12 +3886,27 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>857866</t>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>857974</t>
         </is>
       </c>
     </row>
@@ -2621,12 +3926,27 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>纪录片</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>362732</t>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>362759</t>
         </is>
       </c>
     </row>
@@ -2646,12 +3966,27 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
+          <t>1936</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>310735</t>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>310780</t>
         </is>
       </c>
     </row>
@@ -2671,12 +4006,27 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>中国香港 日本 韩国</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>剧情 爱情 同性</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>648939</t>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>649017</t>
         </is>
       </c>
     </row>
@@ -2696,12 +4046,27 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>美国 意大利</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>犯罪 剧情</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>422943</t>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>422989</t>
         </is>
       </c>
     </row>
@@ -2721,12 +4086,27 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>喜剧 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>994729</t>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>994846</t>
         </is>
       </c>
     </row>
@@ -2746,12 +4126,27 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>850076</t>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>850188</t>
         </is>
       </c>
     </row>
@@ -2771,12 +4166,27 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>剧情 动作 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>739275</t>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>739393</t>
         </is>
       </c>
     </row>
@@ -2796,12 +4206,27 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>动画 悬疑 科幻 惊悚</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>484189</t>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>484274</t>
         </is>
       </c>
     </row>
@@ -2821,12 +4246,27 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>964153</t>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>964259</t>
         </is>
       </c>
     </row>
@@ -2846,12 +4286,27 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>786549</t>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>786677</t>
         </is>
       </c>
     </row>
@@ -2871,12 +4326,27 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>动作 冒险 奇幻</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>882339</t>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>882455</t>
         </is>
       </c>
     </row>
@@ -2896,12 +4366,27 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>中国台湾 日本</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>剧情 爱情 家庭</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>411451</t>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>411544</t>
         </is>
       </c>
     </row>
@@ -2921,12 +4406,27 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>丹麦 瑞典</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>405432</t>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>405501</t>
         </is>
       </c>
     </row>
@@ -2946,12 +4446,27 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>喜剧 爱情 古装</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>1109439</t>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>1109566</t>
         </is>
       </c>
     </row>
@@ -2971,12 +4486,27 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 家庭</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>571325</t>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>571383</t>
         </is>
       </c>
     </row>
@@ -2996,12 +4526,27 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>剧情 歌舞</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>718170</t>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>718230</t>
         </is>
       </c>
     </row>
@@ -3021,12 +4566,27 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>剧情 动作 科幻 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>742145</t>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>742237</t>
         </is>
       </c>
     </row>
@@ -3046,12 +4606,27 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>意大利 法国 巴西 美国</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>剧情 爱情 同性</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>742192</t>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>742287</t>
         </is>
       </c>
     </row>
@@ -3071,12 +4646,27 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>美国 奥地利 瑞士</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>705985</t>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>706084</t>
         </is>
       </c>
     </row>
@@ -3096,12 +4686,27 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>剧情 奇幻 爱情</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>1054710</t>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>1054791</t>
         </is>
       </c>
     </row>
@@ -3121,12 +4726,27 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>美国 加拿大</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>剧情 爱情 同性 家庭</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>721411</t>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>721488</t>
         </is>
       </c>
     </row>
@@ -3146,12 +4766,27 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>684237</t>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>684298</t>
         </is>
       </c>
     </row>
@@ -3171,12 +4806,27 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>571558</t>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>571634</t>
         </is>
       </c>
     </row>
@@ -3196,12 +4846,27 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>834582</t>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>834731</t>
         </is>
       </c>
     </row>
@@ -3221,12 +4886,27 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>喜剧 动作 科幻 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>1042652</t>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>1042784</t>
         </is>
       </c>
     </row>
@@ -3246,12 +4926,27 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>动作 传记 剧情 历史 战争</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>567898</t>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>567946</t>
         </is>
       </c>
     </row>
@@ -3271,12 +4966,27 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
+          <t>1996</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>576919</t>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>577000</t>
         </is>
       </c>
     </row>
@@ -3296,12 +5006,27 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>537262</t>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>537338</t>
         </is>
       </c>
     </row>
@@ -3321,12 +5046,27 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>美国 法国</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>580010</t>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>580083</t>
         </is>
       </c>
     </row>
@@ -3346,12 +5086,27 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>611098</t>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>611163</t>
         </is>
       </c>
     </row>
@@ -3371,12 +5126,27 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>1406600</t>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>1406761</t>
         </is>
       </c>
     </row>
@@ -3396,12 +5166,27 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>568689</t>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>568752</t>
         </is>
       </c>
     </row>
@@ -3421,12 +5206,27 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>981772</t>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>981898</t>
         </is>
       </c>
     </row>
@@ -3446,12 +5246,27 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>629023</t>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>629092</t>
         </is>
       </c>
     </row>
@@ -3471,12 +5286,27 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>法国 德国</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>967996</t>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>968052</t>
         </is>
       </c>
     </row>
@@ -3496,12 +5326,27 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>324117</t>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>324166</t>
         </is>
       </c>
     </row>
@@ -3521,12 +5366,27 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>329291</t>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>329384</t>
         </is>
       </c>
     </row>
@@ -3546,12 +5406,27 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>爱情 奇幻 武侠 古装</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>755302</t>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>755374</t>
         </is>
       </c>
     </row>
@@ -3571,12 +5446,27 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>435043</t>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>435084</t>
         </is>
       </c>
     </row>
@@ -3596,12 +5486,27 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>喜剧 爱情 奇幻</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>698298</t>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>698392</t>
         </is>
       </c>
     </row>
@@ -3621,12 +5526,27 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>动画 奇幻 惊悚</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>352118</t>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>352197</t>
         </is>
       </c>
     </row>
@@ -3646,12 +5566,27 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
+          <t>1995</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>剧情 爱情 动画</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>474938</t>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>474986</t>
         </is>
       </c>
     </row>
@@ -3671,12 +5606,27 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>悬疑 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>686489</t>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>686613</t>
         </is>
       </c>
     </row>
@@ -3696,12 +5646,27 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>775627</t>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>775726</t>
         </is>
       </c>
     </row>
@@ -3721,12 +5686,27 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>喜剧 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>586726</t>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>586822</t>
         </is>
       </c>
     </row>
@@ -3746,12 +5726,27 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>瑞典</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>500670</t>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>500775</t>
         </is>
       </c>
     </row>
@@ -3771,12 +5766,27 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>387728</t>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>387763</t>
         </is>
       </c>
     </row>
@@ -3796,12 +5806,27 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>385815</t>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>385871</t>
         </is>
       </c>
     </row>
@@ -3821,12 +5846,27 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>儿童 喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>694087</t>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>694183</t>
         </is>
       </c>
     </row>
@@ -3846,12 +5886,27 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>533894</t>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>533978</t>
         </is>
       </c>
     </row>
@@ -3871,12 +5926,27 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>法国 英国 美国</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>825161</t>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>825299</t>
         </is>
       </c>
     </row>
@@ -3896,12 +5966,27 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>455398</t>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>455489</t>
         </is>
       </c>
     </row>
@@ -3921,12 +6006,27 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>剧情 爱情 动画 奇幻</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>554595</t>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>554643</t>
         </is>
       </c>
     </row>
@@ -3946,12 +6046,27 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
+          <t>1982</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>无信息</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>无信息</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
           <t>9.6</t>
         </is>
       </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>158329</t>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>158373</t>
         </is>
       </c>
     </row>
@@ -3971,12 +6086,27 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>剧情 动作 西部 冒险</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>625308</t>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>625387</t>
         </is>
       </c>
     </row>
@@ -3996,12 +6126,27 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>动作 惊悚 灾难</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>1229992</t>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>1230143</t>
         </is>
       </c>
     </row>
@@ -4021,12 +6166,27 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>美国 法国</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>967595</t>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>967699</t>
         </is>
       </c>
     </row>
@@ -4046,12 +6206,27 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>剧情 悬疑</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>685413</t>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>685486</t>
         </is>
       </c>
     </row>
@@ -4071,12 +6246,27 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>澳大利亚 美国</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 动画</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>428153</t>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>428179</t>
         </is>
       </c>
     </row>
@@ -4096,12 +6286,27 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
+          <t>1979</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>冒险 动画 奇幻</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>267451</t>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>267487</t>
         </is>
       </c>
     </row>
@@ -4121,12 +6326,27 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>中国台湾 中国大陆 美国 中国香港</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>剧情 爱情 情色</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>841956</t>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>842133</t>
         </is>
       </c>
     </row>
@@ -4146,12 +6366,27 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 古装</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>703643</t>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>703738</t>
         </is>
       </c>
     </row>
@@ -4171,12 +6406,27 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>剧情 家庭 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>580967</t>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>581023</t>
         </is>
       </c>
     </row>
@@ -4196,12 +6446,27 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>中国台湾 美国</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情 同性 家庭</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>376052</t>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>376123</t>
         </is>
       </c>
     </row>
@@ -4221,12 +6486,27 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>剧情 传记 战争 同性</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>663844</t>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>663908</t>
         </is>
       </c>
     </row>
@@ -4246,12 +6526,27 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>动作 科幻 冒险</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>1398043</t>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>1398160</t>
         </is>
       </c>
     </row>
@@ -4271,12 +6566,27 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>喜剧 奇幻 武侠 古装</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>654539</t>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>654636</t>
         </is>
       </c>
     </row>
@@ -4296,12 +6606,27 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>629959</t>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>630122</t>
         </is>
       </c>
     </row>
@@ -4321,12 +6646,27 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>636081</t>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>636195</t>
         </is>
       </c>
     </row>
@@ -4346,12 +6686,27 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>346564</t>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>346595</t>
         </is>
       </c>
     </row>
@@ -4371,12 +6726,27 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>599780</t>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>599817</t>
         </is>
       </c>
     </row>
@@ -4396,12 +6766,27 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
+          <t>1954</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>动作 冒险 剧情</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>204258</t>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>204279</t>
         </is>
       </c>
     </row>
@@ -4421,12 +6806,27 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>澳大利亚 美国</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>剧情 传记 历史 战争</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>798404</t>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>798482</t>
         </is>
       </c>
     </row>
@@ -4446,12 +6846,27 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>韩国</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>668824</t>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>668913</t>
         </is>
       </c>
     </row>
@@ -4471,12 +6886,27 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
+          <t>1960</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>307113</t>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>307183</t>
         </is>
       </c>
     </row>
@@ -4496,12 +6926,27 @@
       </c>
       <c r="D163" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>动作 科幻</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>457205</t>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>457261</t>
         </is>
       </c>
     </row>
@@ -4521,12 +6966,27 @@
       </c>
       <c r="D164" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>剧情 爱情 动画</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>1442157</t>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>1442288</t>
         </is>
       </c>
     </row>
@@ -4546,12 +7006,27 @@
       </c>
       <c r="D165" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>841413</t>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>841508</t>
         </is>
       </c>
     </row>
@@ -4571,12 +7046,27 @@
       </c>
       <c r="D166" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>悬疑 惊悚 恐怖</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>550903</t>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>550986</t>
         </is>
       </c>
     </row>
@@ -4596,12 +7086,27 @@
       </c>
       <c r="D167" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>剧情 传记 同性</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>463304</t>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>463344</t>
         </is>
       </c>
     </row>
@@ -4621,12 +7126,27 @@
       </c>
       <c r="D168" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>540590</t>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>540716</t>
         </is>
       </c>
     </row>
@@ -4646,12 +7166,27 @@
       </c>
       <c r="D169" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>856931</t>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>857016</t>
         </is>
       </c>
     </row>
@@ -4671,12 +7206,27 @@
       </c>
       <c r="D170" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>美国 德国 法国 英国</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>动作 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>429024</t>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>429084</t>
         </is>
       </c>
     </row>
@@ -4696,12 +7246,27 @@
       </c>
       <c r="D171" t="inlineStr">
         <is>
+          <t>1986</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>剧情 动作 犯罪</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>555120</t>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>555184</t>
         </is>
       </c>
     </row>
@@ -4721,12 +7286,27 @@
       </c>
       <c r="D172" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>巴西 法国</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>犯罪 剧情</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>307246</t>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>307278</t>
         </is>
       </c>
     </row>
@@ -4746,12 +7326,27 @@
       </c>
       <c r="D173" t="inlineStr">
         <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>361951</t>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>361987</t>
         </is>
       </c>
     </row>
@@ -4771,12 +7366,27 @@
       </c>
       <c r="D174" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>美国 希腊</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>416652</t>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>416722</t>
         </is>
       </c>
     </row>
@@ -4796,12 +7406,27 @@
       </c>
       <c r="D175" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 动作 犯罪</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>436662</t>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>436720</t>
         </is>
       </c>
     </row>
@@ -4821,12 +7446,27 @@
       </c>
       <c r="D176" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>461986</t>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>462075</t>
         </is>
       </c>
     </row>
@@ -4846,12 +7486,27 @@
       </c>
       <c r="D177" t="inlineStr">
         <is>
+          <t>1999</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>犯罪 剧情 奇幻 悬疑</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>342744</t>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>342833</t>
         </is>
       </c>
     </row>
@@ -4871,12 +7526,27 @@
       </c>
       <c r="D178" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>英国 南非 意大利 美国</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>剧情 传记 历史 战争</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>337989</t>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>338024</t>
         </is>
       </c>
     </row>
@@ -4896,12 +7566,27 @@
       </c>
       <c r="D179" t="inlineStr">
         <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>美国 加拿大</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>1032286</t>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>1032415</t>
         </is>
       </c>
     </row>
@@ -4921,12 +7606,27 @@
       </c>
       <c r="D180" t="inlineStr">
         <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>犯罪 剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>618153</t>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>618218</t>
         </is>
       </c>
     </row>
@@ -4946,12 +7646,27 @@
       </c>
       <c r="D181" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>142092</t>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>142127</t>
         </is>
       </c>
     </row>
@@ -4971,12 +7686,27 @@
       </c>
       <c r="D182" t="inlineStr">
         <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>动画 奇幻 音乐</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>1014590</t>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>1014727</t>
         </is>
       </c>
     </row>
@@ -4996,12 +7726,27 @@
       </c>
       <c r="D183" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>喜剧 犯罪</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>844402</t>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>844504</t>
         </is>
       </c>
     </row>
@@ -5021,12 +7766,27 @@
       </c>
       <c r="D184" t="inlineStr">
         <is>
+          <t>1952</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>喜剧 歌舞 爱情</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
           <t>9.1</t>
         </is>
       </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>234051</t>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>234090</t>
         </is>
       </c>
     </row>
@@ -5046,12 +7806,27 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
+          <t>1968</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>科幻 惊悚 冒险</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>342840</t>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>342894</t>
         </is>
       </c>
     </row>
@@ -5071,12 +7846,27 @@
       </c>
       <c r="D186" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>582630</t>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>582680</t>
         </is>
       </c>
     </row>
@@ -5096,12 +7886,27 @@
       </c>
       <c r="D187" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 惊悚</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>495301</t>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>495381</t>
         </is>
       </c>
     </row>
@@ -5121,12 +7926,27 @@
       </c>
       <c r="D188" t="inlineStr">
         <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
           <t>9.2</t>
         </is>
       </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>200692</t>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>200707</t>
         </is>
       </c>
     </row>
@@ -5146,12 +7966,27 @@
       </c>
       <c r="D189" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>阿根廷 西班牙</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 犯罪</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>454240</t>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>454282</t>
         </is>
       </c>
     </row>
@@ -5171,12 +8006,27 @@
       </c>
       <c r="D190" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 家庭</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>828866</t>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>828991</t>
         </is>
       </c>
     </row>
@@ -5196,12 +8046,27 @@
       </c>
       <c r="D191" t="inlineStr">
         <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>喜剧 动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>556124</t>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>556217</t>
         </is>
       </c>
     </row>
@@ -5221,12 +8086,27 @@
       </c>
       <c r="D192" t="inlineStr">
         <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>剧情 音乐</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>604840</t>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>604944</t>
         </is>
       </c>
     </row>
@@ -5246,12 +8126,27 @@
       </c>
       <c r="D193" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>喜剧 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>631308</t>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>631404</t>
         </is>
       </c>
     </row>
@@ -5271,12 +8166,27 @@
       </c>
       <c r="D194" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>英国 澳大利亚</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>剧情 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>890176</t>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>890301</t>
         </is>
       </c>
     </row>
@@ -5296,12 +8206,27 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>中国台湾</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>312492</t>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>312555</t>
         </is>
       </c>
     </row>
@@ -5321,12 +8246,27 @@
       </c>
       <c r="D196" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>英国</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>758996</t>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>759053</t>
         </is>
       </c>
     </row>
@@ -5346,12 +8286,27 @@
       </c>
       <c r="D197" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 动画</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
           <t>9.0</t>
         </is>
       </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>242939</t>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>243013</t>
         </is>
       </c>
     </row>
@@ -5371,12 +8326,27 @@
       </c>
       <c r="D198" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>中国香港 中国台湾</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>剧情 动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>589016</t>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>589083</t>
         </is>
       </c>
     </row>
@@ -5396,12 +8366,27 @@
       </c>
       <c r="D199" t="inlineStr">
         <is>
+          <t>1989</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>471821</t>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>471873</t>
         </is>
       </c>
     </row>
@@ -5421,12 +8406,27 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>冒险 喜剧 剧情</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>477387</t>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>477466</t>
         </is>
       </c>
     </row>
@@ -5446,12 +8446,27 @@
       </c>
       <c r="D201" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>中国台湾</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>剧情 喜剧</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>476341</t>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>476436</t>
         </is>
       </c>
     </row>
@@ -5471,12 +8486,27 @@
       </c>
       <c r="D202" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>剧情 动画 儿童</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>341600</t>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>341641</t>
         </is>
       </c>
     </row>
@@ -5496,12 +8526,27 @@
       </c>
       <c r="D203" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>311314</t>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>311353</t>
         </is>
       </c>
     </row>
@@ -5521,12 +8566,27 @@
       </c>
       <c r="D204" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>剧情 惊悚</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>794591</t>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>794650</t>
         </is>
       </c>
     </row>
@@ -5546,12 +8606,27 @@
       </c>
       <c r="D205" t="inlineStr">
         <is>
+          <t>1931</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>喜剧 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>152006</t>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>152030</t>
         </is>
       </c>
     </row>
@@ -5571,12 +8646,27 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>英国 美国 法国</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>喜剧 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>752685</t>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>752770</t>
         </is>
       </c>
     </row>
@@ -5596,12 +8686,27 @@
       </c>
       <c r="D207" t="inlineStr">
         <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>美国 加拿大</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>853014</t>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>853099</t>
         </is>
       </c>
     </row>
@@ -5621,12 +8726,27 @@
       </c>
       <c r="D208" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>564116</t>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>564236</t>
         </is>
       </c>
     </row>
@@ -5646,12 +8766,27 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>412194</t>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>412246</t>
         </is>
       </c>
     </row>
@@ -5671,12 +8806,27 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>剧情 传记 同性 音乐</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>622479</t>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>622575</t>
         </is>
       </c>
     </row>
@@ -5696,12 +8846,27 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>美国 英国 法国</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>犯罪 剧情 惊悚</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>272763</t>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>272830</t>
         </is>
       </c>
     </row>
@@ -5721,12 +8886,27 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>泰国</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 爱情</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>994715</t>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>994776</t>
         </is>
       </c>
     </row>
@@ -5746,12 +8926,27 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
+          <t>1993</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>剧情 爱情 奇幻 古装</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>540331</t>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>540388</t>
         </is>
       </c>
     </row>
@@ -5771,12 +8966,27 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>剧情 科幻</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>457551</t>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>457604</t>
         </is>
       </c>
     </row>
@@ -5796,12 +9006,27 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>687978</t>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>688053</t>
         </is>
       </c>
     </row>
@@ -5821,12 +9046,27 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
+          <t>1966</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>法国 英国</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>喜剧 战争</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
           <t>8.9</t>
         </is>
       </c>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>264904</t>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>264943</t>
         </is>
       </c>
     </row>
@@ -5846,12 +9086,27 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>澳大利亚 美国</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>动作 科幻 冒险</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>544334</t>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>544403</t>
         </is>
       </c>
     </row>
@@ -5871,12 +9126,27 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>美国 法国</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>动作 科幻</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>349634</t>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>349674</t>
         </is>
       </c>
     </row>
@@ -5896,12 +9166,27 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>剧情 爱情 歌舞</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
           <t>8.4</t>
         </is>
       </c>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>963037</t>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>963355</t>
         </is>
       </c>
     </row>
@@ -5921,12 +9206,27 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
+          <t>1950</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>剧情 犯罪 悬疑</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>323395</t>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>323428</t>
         </is>
       </c>
     </row>
@@ -5946,12 +9246,27 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
+          <t>1992</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>中国香港 中国大陆</t>
+        </is>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>动作 爱情 武侠 古装</t>
+        </is>
+      </c>
+      <c r="G221" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>456852</t>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>456906</t>
         </is>
       </c>
     </row>
@@ -5971,12 +9286,27 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
+          <t>1987</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
           <t>9.3</t>
         </is>
       </c>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>149268</t>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>149312</t>
         </is>
       </c>
     </row>
@@ -5996,12 +9326,27 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>德国 美国</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>493002</t>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>493061</t>
         </is>
       </c>
     </row>
@@ -6021,12 +9366,27 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
+          <t>1997</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>剧情 科幻 惊悚</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>309846</t>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>309905</t>
         </is>
       </c>
     </row>
@@ -6046,12 +9406,27 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>动画 奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E225" t="inlineStr">
-        <is>
-          <t>513545</t>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>513617</t>
         </is>
       </c>
     </row>
@@ -6071,12 +9446,27 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>661715</t>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>661926</t>
         </is>
       </c>
     </row>
@@ -6096,12 +9486,27 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
+          <t>1988</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>动画 剧情 战争</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E227" t="inlineStr">
-        <is>
-          <t>411384</t>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>411414</t>
         </is>
       </c>
     </row>
@@ -6121,12 +9526,27 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>科幻 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E228" t="inlineStr">
-        <is>
-          <t>600914</t>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>600994</t>
         </is>
       </c>
     </row>
@@ -6146,12 +9566,27 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>美国 中国香港</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>剧情 儿童 家庭</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E229" t="inlineStr">
-        <is>
-          <t>561749</t>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>561806</t>
         </is>
       </c>
     </row>
@@ -6171,12 +9606,27 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E230" t="inlineStr">
-        <is>
-          <t>598043</t>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>598140</t>
         </is>
       </c>
     </row>
@@ -6196,12 +9646,27 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>动作 科幻</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E231" t="inlineStr">
-        <is>
-          <t>415947</t>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>416001</t>
         </is>
       </c>
     </row>
@@ -6221,12 +9686,27 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>纪录片</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E232" t="inlineStr">
-        <is>
-          <t>296862</t>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>296886</t>
         </is>
       </c>
     </row>
@@ -6246,12 +9726,27 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>美国 德国 英国</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>剧情 惊悚 冒险</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E233" t="inlineStr">
-        <is>
-          <t>389260</t>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>389304</t>
         </is>
       </c>
     </row>
@@ -6271,12 +9766,27 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>美国 德国</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>剧情 犯罪</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E234" t="inlineStr">
-        <is>
-          <t>378127</t>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>378178</t>
         </is>
       </c>
     </row>
@@ -6296,12 +9806,27 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>英国 美国 匈牙利 约旦</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>剧情 科幻 冒险</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>751120</t>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>751280</t>
         </is>
       </c>
     </row>
@@ -6321,12 +9846,27 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>287274</t>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>287316</t>
         </is>
       </c>
     </row>
@@ -6346,12 +9886,27 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>爱尔兰 加拿大 英国 美国</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>剧情 家庭</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E237" t="inlineStr">
-        <is>
-          <t>374670</t>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>374701</t>
         </is>
       </c>
     </row>
@@ -6371,12 +9926,27 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
+          <t>1940</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>剧情 爱情 战争</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E238" t="inlineStr">
-        <is>
-          <t>285461</t>
+      <c r="H238" t="inlineStr">
+        <is>
+          <t>285504</t>
         </is>
       </c>
     </row>
@@ -6396,12 +9966,27 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>美国 英国</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>剧情 喜剧 冒险</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E239" t="inlineStr">
-        <is>
-          <t>512478</t>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>512753</t>
         </is>
       </c>
     </row>
@@ -6421,12 +10006,27 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>日本</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>动画 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr">
-        <is>
-          <t>278351</t>
+      <c r="H240" t="inlineStr">
+        <is>
+          <t>278407</t>
         </is>
       </c>
     </row>
@@ -6446,12 +10046,27 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>美国 德国</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>动作 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr">
-        <is>
-          <t>362223</t>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>362275</t>
         </is>
       </c>
     </row>
@@ -6471,12 +10086,27 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>中国大陆</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>剧情 战争</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
           <t>9.5</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr">
-        <is>
-          <t>97852</t>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>97944</t>
         </is>
       </c>
     </row>
@@ -6496,12 +10126,27 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>英国 美国</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>奇幻 冒险</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr">
-        <is>
-          <t>592903</t>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>593009</t>
         </is>
       </c>
     </row>
@@ -6521,12 +10166,27 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>动作 科幻 动画 冒险</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr">
-        <is>
-          <t>686567</t>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>686703</t>
         </is>
       </c>
     </row>
@@ -6546,12 +10206,27 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>剧情 家庭 传记 运动</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr">
-        <is>
-          <t>319601</t>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>319660</t>
         </is>
       </c>
     </row>
@@ -6571,12 +10246,27 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>美国 德国 捷克</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>动作 悬疑 惊悚</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr">
-        <is>
-          <t>439567</t>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>439632</t>
         </is>
       </c>
     </row>
@@ -6596,12 +10286,27 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
+          <t>1990</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>中国香港</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>犯罪 剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
           <t>8.5</t>
         </is>
       </c>
-      <c r="E247" t="inlineStr">
-        <is>
-          <t>523877</t>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>523983</t>
         </is>
       </c>
     </row>
@@ -6621,12 +10326,27 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
+          <t>1991</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>中国大陆 中国香港 中国台湾</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>剧情</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
           <t>8.8</t>
         </is>
       </c>
-      <c r="E248" t="inlineStr">
-        <is>
-          <t>290457</t>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>290590</t>
         </is>
       </c>
     </row>
@@ -6646,12 +10366,27 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>美国 德国</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>剧情 爱情</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E249" t="inlineStr">
-        <is>
-          <t>461054</t>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>461088</t>
         </is>
       </c>
     </row>
@@ -6671,12 +10406,27 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>喜剧 爱情 音乐</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
           <t>8.6</t>
         </is>
       </c>
-      <c r="E250" t="inlineStr">
-        <is>
-          <t>436855</t>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>436892</t>
         </is>
       </c>
     </row>
@@ -6696,12 +10446,27 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
+          <t>1994</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>美国</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>剧情 爱情 战争 西部</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
           <t>8.7</t>
         </is>
       </c>
-      <c r="E251" t="inlineStr">
-        <is>
-          <t>293491</t>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>293508</t>
         </is>
       </c>
     </row>
